--- a/output/Table1.xlsx
+++ b/output/Table1.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WolbachiaEvolHist_2023\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9657F-C1A5-402A-82EC-62E9AC8025FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E396EB8-2C24-4BA8-A4E7-9BC5024437E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19008" windowHeight="10500" activeTab="4" xr2:uid="{D0DB968F-2B84-4F0B-A5F6-69E240F65827}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9180" activeTab="1" xr2:uid="{D0DB968F-2B84-4F0B-A5F6-69E240F65827}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
     <sheet name="Table1" sheetId="2" r:id="rId2"/>
-    <sheet name="SRA" sheetId="3" r:id="rId3"/>
-    <sheet name="RefSeq" sheetId="4" r:id="rId4"/>
-    <sheet name="AssemblyStats" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId3"/>
+    <sheet name="SRA" sheetId="3" r:id="rId4"/>
+    <sheet name="RefSeq" sheetId="4" r:id="rId5"/>
+    <sheet name="AssemblyStats" sheetId="5" r:id="rId6"/>
+    <sheet name="Summary" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AssemblyStats!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Summary!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table1!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AssemblyStats!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Summary!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table1!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="479">
   <si>
     <t>HG0026</t>
   </si>
@@ -1033,6 +1034,528 @@
       <t xml:space="preserve"> Type</t>
     </r>
   </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>DGRP338</t>
+  </si>
+  <si>
+    <t>DGRP335</t>
+  </si>
+  <si>
+    <t>EZ2</t>
+  </si>
+  <si>
+    <t>ED6N</t>
+  </si>
+  <si>
+    <t>ED3</t>
+  </si>
+  <si>
+    <t>ED2</t>
+  </si>
+  <si>
+    <t>ED10N</t>
+  </si>
+  <si>
+    <t>ZI268</t>
+  </si>
+  <si>
+    <t>RG5</t>
+  </si>
+  <si>
+    <t>ZS11</t>
+  </si>
+  <si>
+    <t>SP80</t>
+  </si>
+  <si>
+    <t>KR7</t>
+  </si>
+  <si>
+    <t>UG5N</t>
+  </si>
+  <si>
+    <t>ZO12</t>
+  </si>
+  <si>
+    <t>TZ14</t>
+  </si>
+  <si>
+    <t>RG34</t>
+  </si>
+  <si>
+    <t>RG3</t>
+  </si>
+  <si>
+    <t>KN34</t>
+  </si>
+  <si>
+    <t>GA125</t>
+  </si>
+  <si>
+    <t>DGRP646</t>
+  </si>
+  <si>
+    <t>DGRP370</t>
+  </si>
+  <si>
+    <t>CK2</t>
+  </si>
+  <si>
+    <t>SRR834513</t>
+  </si>
+  <si>
+    <t>SRR018523</t>
+  </si>
+  <si>
+    <t>SRR189078</t>
+  </si>
+  <si>
+    <t>SRR189077</t>
+  </si>
+  <si>
+    <t>SRR189059</t>
+  </si>
+  <si>
+    <t>SRR189058</t>
+  </si>
+  <si>
+    <t>SRR189056</t>
+  </si>
+  <si>
+    <t>SRR189425</t>
+  </si>
+  <si>
+    <t>SRR189270</t>
+  </si>
+  <si>
+    <t>SRR835083</t>
+  </si>
+  <si>
+    <t>SRR834539</t>
+  </si>
+  <si>
+    <t>SRR189408</t>
+  </si>
+  <si>
+    <t>SRR189281</t>
+  </si>
+  <si>
+    <t>SRR189260</t>
+  </si>
+  <si>
+    <t>SRR189415</t>
+  </si>
+  <si>
+    <t>SRR306618</t>
+  </si>
+  <si>
+    <t>SRR189273</t>
+  </si>
+  <si>
+    <t>SRR189390</t>
+  </si>
+  <si>
+    <t>SRR189387</t>
+  </si>
+  <si>
+    <t>SRR189243</t>
+  </si>
+  <si>
+    <t>SRR189100</t>
+  </si>
+  <si>
+    <t>SRR189040</t>
+  </si>
+  <si>
+    <t>Table S2. Population samples from which the sequenced genomes originated. The number of sequenced individuals for each focal chromosome arm is given.</t>
+  </si>
+  <si>
+    <t>Number of genomes for each euchromatic chromosome</t>
+  </si>
+  <si>
+    <t>Population ID</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Collector(s)</t>
+  </si>
+  <si>
+    <t>Latitude (negative=south)</t>
+  </si>
+  <si>
+    <t>Longitude (negative=west)</t>
+  </si>
+  <si>
+    <t>Elevation (m)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Kisangani</t>
+  </si>
+  <si>
+    <t>J. Kennis</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Oku</t>
+  </si>
+  <si>
+    <t>J. Pool</t>
+  </si>
+  <si>
+    <t>3 additional chromosome 3 extractions exist, but derive from strains that were separately sequenced from haploid embryos</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gambella</t>
+  </si>
+  <si>
+    <t>R. Corbett-Detig</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Bonga</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Dodola</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>Fiche</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>contains heterozygous intervals (masked in consensus sequences)</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Masha</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Debre Birhan</t>
+  </si>
+  <si>
+    <t>EZ</t>
+  </si>
+  <si>
+    <t>Ziway</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Franceville</t>
+  </si>
+  <si>
+    <t>B. Ballard &amp; S. Charlat</t>
+  </si>
+  <si>
+    <t>GA191 is missing chromosome 2 data due to heterozygosity</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>DondŽ</t>
+  </si>
+  <si>
+    <t>B. B. Sow</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Malindi</t>
+  </si>
+  <si>
+    <t>B. Ballard</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Nyahururu</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Molo</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Marigat</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Thika</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Maiduguri</t>
+  </si>
+  <si>
+    <t>D. Gwary &amp; B. Sastawa</t>
+  </si>
+  <si>
+    <t>RAL</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Raleigh NC</t>
+  </si>
+  <si>
+    <t>T. Mackay</t>
+  </si>
+  <si>
+    <t>(sample sizes before heterozygosity and IBD masking)</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Cyangugu</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Gikongoro</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Barkly East</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Dullstroom</t>
+  </si>
+  <si>
+    <t>SD82 is missing chromosome 2 data due to heterozygosity</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Port Edward</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Fouriesburg</t>
+  </si>
+  <si>
+    <t>SF7 is missing chromosome 2 data due to heterozygosity</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Phalaborwa</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Uyole</t>
+  </si>
+  <si>
+    <t>L. Nsemwa</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Namulonge</t>
+  </si>
+  <si>
+    <t>J. Ogwang</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Kisoro</t>
+  </si>
+  <si>
+    <t>UK120 is missing chromosome 2 data due to heterozygosity</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Masindi</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Siavonga</t>
+  </si>
+  <si>
+    <t>ZI382 is missing chromosome X due to heterozygosity</t>
+  </si>
+  <si>
+    <t>ZK</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Lake Kariba</t>
+  </si>
+  <si>
+    <t>T. Mutangadura</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>Livingstone</t>
+  </si>
+  <si>
+    <t>ZO</t>
+  </si>
+  <si>
+    <t>Solwezi</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>Sengwa</t>
+  </si>
+  <si>
+    <t>R. Ramey</t>
+  </si>
+  <si>
+    <t>10.1093/molbev/msw195</t>
+  </si>
+  <si>
+    <t>10.1093/gbe/evt169</t>
+  </si>
+  <si>
+    <t>10.1101/2023.04.24.538033</t>
+  </si>
 </sst>
 </file>
 
@@ -1040,9 +1563,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1601,14 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1118,26 +1649,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,7 +1665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1165,8 +1684,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2003,1269 +2540,3521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E334D77-0C5C-462D-821F-3A809E110AC4}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="str">
-        <f>VLOOKUP(B2,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1800_376</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="I1" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>376</v>
       </c>
-      <c r="C2" s="14" t="str">
-        <f>VLOOKUP(B2,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B2" s="9" t="str">
+        <f>VLOOKUP(A2,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876563</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="11" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="str">
-        <f>VLOOKUP(B3,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1800_377</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="I2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>377</v>
       </c>
-      <c r="C3" s="17" t="str">
-        <f>VLOOKUP(B3,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B3" s="12" t="str">
+        <f>VLOOKUP(A3,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876584</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="str">
-        <f>VLOOKUP(B4,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1800_378</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="I3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>378</v>
       </c>
-      <c r="C4" s="17" t="str">
-        <f>VLOOKUP(B4,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B4" s="12" t="str">
+        <f>VLOOKUP(A4,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876583</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="str">
-        <f>VLOOKUP(B5,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1800_380</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="I4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>380</v>
       </c>
-      <c r="C5" s="17" t="str">
-        <f>VLOOKUP(B5,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B5" s="12" t="str">
+        <f>VLOOKUP(A5,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876582</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="str">
-        <f>VLOOKUP(B6,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG0021</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="I5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>VLOOKUP(B6,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B6" s="12" t="str">
+        <f>VLOOKUP(A6,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876586</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="str">
-        <f>VLOOKUP(B7,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG0025</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="I6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17" t="str">
-        <f>VLOOKUP(B7,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B7" s="12" t="str">
+        <f>VLOOKUP(A7,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876585</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="str">
-        <f>VLOOKUP(B8,Names!$A$1:$B$46,2,0)</f>
-        <v>Germany_Passau_1800_HG_09</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="I7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="str">
-        <f>VLOOKUP(B8,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B8" s="12" t="str">
+        <f>VLOOKUP(A8,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876562</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="str">
-        <f>VLOOKUP(B9,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG0027</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="I8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="str">
-        <f>VLOOKUP(B9,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B9" s="12" t="str">
+        <f>VLOOKUP(A9,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876574</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="str">
-        <f>VLOOKUP(B10,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG0028</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="I9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17" t="str">
-        <f>VLOOKUP(B10,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B10" s="12" t="str">
+        <f>VLOOKUP(A10,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876568</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="str">
-        <f>VLOOKUP(B11,Names!$A$1:$B$46,2,0)</f>
-        <v>Denmark_Zealand_1800_HG0029</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="I10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="17" t="str">
-        <f>VLOOKUP(B11,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B11" s="12" t="str">
+        <f>VLOOKUP(A11,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876565</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="str">
-        <f>VLOOKUP(B12,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_15</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="I11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="17" t="str">
-        <f>VLOOKUP(B12,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B12" s="12" t="str">
+        <f>VLOOKUP(A12,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876580</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="str">
-        <f>VLOOKUP(B13,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Smaland_1800_HG0035</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="I12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="17" t="str">
-        <f>VLOOKUP(B13,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B13" s="12" t="str">
+        <f>VLOOKUP(A13,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876566</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="H13" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="str">
-        <f>VLOOKUP(B14,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_16</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="I13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="17" t="str">
-        <f>VLOOKUP(B14,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B14" s="12" t="str">
+        <f>VLOOKUP(A14,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876579</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="str">
-        <f>VLOOKUP(B15,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_14</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="I14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="str">
-        <f>VLOOKUP(B15,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B15" s="12" t="str">
+        <f>VLOOKUP(A15,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876581</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G15" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="str">
-        <f>VLOOKUP(B16,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_20</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="I15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17" t="str">
-        <f>VLOOKUP(B16,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B16" s="12" t="str">
+        <f>VLOOKUP(A16,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876575</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="H16" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="str">
-        <f>VLOOKUP(B17,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG0026</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="I16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="17" t="str">
-        <f>VLOOKUP(B17,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B17" s="12" t="str">
+        <f>VLOOKUP(A17,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876567</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="str">
-        <f>VLOOKUP(B18,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_17</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="I17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17" t="str">
-        <f>VLOOKUP(B18,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B18" s="12" t="str">
+        <f>VLOOKUP(A18,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876578</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="H18" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="str">
-        <f>VLOOKUP(B19,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_18</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="I18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="17" t="str">
-        <f>VLOOKUP(B19,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B19" s="12" t="str">
+        <f>VLOOKUP(A19,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876577</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="H19" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="str">
-        <f>VLOOKUP(B20,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_19</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="I19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="str">
-        <f>VLOOKUP(B20,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B20" s="12" t="str">
+        <f>VLOOKUP(A20,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876576</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="H20" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="str">
-        <f>VLOOKUP(B21,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1800_HG0034</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="I20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="17" t="str">
-        <f>VLOOKUP(B21,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B21" s="12" t="str">
+        <f>VLOOKUP(A21,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876564</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="H21" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="str">
-        <f>VLOOKUP(B22,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG_21</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="I21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="17" t="str">
-        <f>VLOOKUP(B22,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B22" s="12" t="str">
+        <f>VLOOKUP(A22,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876573</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="H22" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="str">
-        <f>VLOOKUP(B23,Names!$A$1:$B$46,2,0)</f>
-        <v>Germany_Passau_1800_HG29702</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="I22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="17" t="str">
-        <f>VLOOKUP(B23,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B23" s="12" t="str">
+        <f>VLOOKUP(A23,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876569</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="str">
-        <f>VLOOKUP(B24,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG47203</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="I23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="17" t="str">
-        <f>VLOOKUP(B24,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B24" s="12" t="str">
+        <f>VLOOKUP(A24,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876570</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="G24" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="str">
-        <f>VLOOKUP(B25,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG47204</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="I24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="17" t="str">
-        <f>VLOOKUP(B25,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B25" s="12" t="str">
+        <f>VLOOKUP(A25,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876571</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="H25" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="str">
-        <f>VLOOKUP(B26,Names!$A$1:$B$46,2,0)</f>
-        <v>Sweden_Lund_1933_HG47205</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="I25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="20" t="str">
-        <f>VLOOKUP(B26,SRA!$A$2:$D$36,2,0)</f>
+      <c r="B26" s="15" t="str">
+        <f>VLOOKUP(A26,SRA!$A$2:$D$36,2,0)</f>
         <v>SRR23876572</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1933</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="G26" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="H26" s="17" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="str">
-        <f>VLOOKUP(B27,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel_Donor4Aedes</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="17" t="str">
-        <f>VLOOKUP(B27,SRA!$A$2:$D$36,2,0)</f>
-        <v>SRR17978916</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="I26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <f>VLOOKUP(A27,SRA!$A$2:$D$36,2,0)</f>
+        <v>SRR945468</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="G27" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="H27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="15" t="str">
+        <f>VLOOKUP(A28,SRA!$A$2:$D$36,2,0)</f>
+        <v>SRR10438626</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="str">
-        <f>VLOOKUP(B28,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel_Indiana</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="17" t="str">
-        <f>VLOOKUP(B28,SRA!$A$2:$D$36,2,0)</f>
-        <v>SRR1645077</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="I29" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="D30" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="G30" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="H47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s">
+        <v>338</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="9" t="str">
+        <f>VLOOKUP(A49,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="E49" s="9">
+        <f>YEAR(VLOOKUP(A49,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49" s="26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="str">
-        <f>VLOOKUP(B29,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel1_Gulbenkian</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="17" t="str">
-        <f>VLOOKUP(B29,SRA!$A$2:$D$36,2,0)</f>
-        <v>SRR10424182</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="I49" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="D50" s="9" t="str">
+        <f>VLOOKUP(A50,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="E50" s="9">
+        <f>YEAR(VLOOKUP(A50,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="G50" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="H50" s="26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="str">
-        <f>VLOOKUP(B30,Names!$A$1:$B$46,2,0)</f>
-        <v>wMelCS_Gulbenkian</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="17" t="str">
-        <f>VLOOKUP(B30,SRA!$A$2:$D$36,2,0)</f>
-        <v>SRR945468</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="I50" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>318</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="D51" s="9" t="str">
+        <f>VLOOKUP(A51,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="E51" s="9">
+        <f>YEAR(VLOOKUP(A51,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="G51" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="str">
-        <f>VLOOKUP(B31,Names!$A$1:$B$46,2,0)</f>
-        <v>wMelCSb_Gulbenkian</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="20" t="str">
-        <f>VLOOKUP(B31,SRA!$A$2:$D$36,2,0)</f>
-        <v>SRR10438626</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="H51" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" t="s">
+        <v>476</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="D52" s="9" t="str">
+        <f>VLOOKUP(A52,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="E52" s="9">
+        <f>YEAR(VLOOKUP(A52,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G52" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="str">
-        <f>VLOOKUP(B32,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel1_Finland</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="H52" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52" t="s">
+        <v>476</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="D53" s="9" t="str">
+        <f>VLOOKUP(A53,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="E53" s="9">
+        <f>YEAR(VLOOKUP(A53,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="G53" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H53" s="26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="str">
-        <f>VLOOKUP(B33,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel2_Finland</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="I53" t="s">
+        <v>476</v>
+      </c>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="D54" s="9" t="str">
+        <f>VLOOKUP(A54,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Zambia</v>
+      </c>
+      <c r="E54" s="9">
+        <f>YEAR(VLOOKUP(A54,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2010</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G33" s="19" t="s">
+      <c r="G54" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H54" s="26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="str">
-        <f>VLOOKUP(B34,Names!$A$1:$B$46,2,0)</f>
-        <v>wMelCS_LabStrain_Gulbenkian</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="I54" t="s">
+        <v>476</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="9" t="str">
+        <f>VLOOKUP(A55,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Rwanda</v>
+      </c>
+      <c r="E55" s="9">
+        <f>YEAR(VLOOKUP(A55,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I55" t="s">
+        <v>476</v>
+      </c>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="9" t="str">
+        <f>VLOOKUP(A56,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Zimbabwe</v>
+      </c>
+      <c r="E56" s="9">
+        <f>YEAR(VLOOKUP(A56,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>1990</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I56" t="s">
+        <v>476</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="9" t="str">
+        <f>VLOOKUP(A57,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>South Africa</v>
+      </c>
+      <c r="E57" s="9">
+        <f>YEAR(VLOOKUP(A57,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2010</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I57" t="s">
+        <v>476</v>
+      </c>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="9" t="str">
+        <f>VLOOKUP(A58,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Kenya</v>
+      </c>
+      <c r="E58" s="9">
+        <f>YEAR(VLOOKUP(A58,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2009</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" t="s">
+        <v>476</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="9" t="str">
+        <f>VLOOKUP(A59,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Uganda</v>
+      </c>
+      <c r="E59" s="9">
+        <f>YEAR(VLOOKUP(A59,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2005</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" s="9" t="str">
+        <f>VLOOKUP(A60,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Zambia</v>
+      </c>
+      <c r="E60" s="9">
+        <f>YEAR(VLOOKUP(A60,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2010</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="9" t="str">
+        <f>VLOOKUP(A61,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Tanzania</v>
+      </c>
+      <c r="E61" s="9">
+        <f>YEAR(VLOOKUP(A61,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2009</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" s="9" t="str">
+        <f>VLOOKUP(A62,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Rwanda</v>
+      </c>
+      <c r="E62" s="9">
+        <f>YEAR(VLOOKUP(A62,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" t="s">
+        <v>354</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="9" t="str">
+        <f>VLOOKUP(A63,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Rwanda</v>
+      </c>
+      <c r="E63" s="9">
+        <f>YEAR(VLOOKUP(A63,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2008</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" t="s">
+        <v>355</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="9" t="str">
+        <f>VLOOKUP(A64,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Kenya</v>
+      </c>
+      <c r="E64" s="9">
+        <f>YEAR(VLOOKUP(A64,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2009</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" t="s">
+        <v>356</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="9" t="str">
+        <f>VLOOKUP(A65,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Gabon</v>
+      </c>
+      <c r="E65" s="9">
+        <f>YEAR(VLOOKUP(A65,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2002</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>333</v>
+      </c>
+      <c r="B66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="9" t="str">
+        <f>VLOOKUP(A68,Tabelle1!$A$6:$D$41,2,1)</f>
+        <v>Congo</v>
+      </c>
+      <c r="E68" s="9">
+        <f>YEAR(VLOOKUP(A68,Tabelle1!$A$6:$D$41,4,1))</f>
+        <v>2010</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <f>69-47</f>
         <v>22</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="str">
-        <f>VLOOKUP(B35,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel_LabStrain_Gulbenkian</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="str">
-        <f>VLOOKUP(B36,Names!$A$1:$B$46,2,0)</f>
-        <v>wMelCSPOP_LabStrain_Gulbenkian</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="str">
-        <f>VLOOKUP(B37,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel1_Portugal</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="str">
-        <f>VLOOKUP(B38,Names!$A$1:$B$46,2,0)</f>
-        <v>wMelCS2_Portugal</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="str">
-        <f>VLOOKUP(B39,Names!$A$1:$B$46,2,0)</f>
-        <v>wMelCS1_Portugal</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="str">
-        <f>VLOOKUP(B40,Names!$A$1:$B$46,2,0)</f>
-        <v>wMel2_Portugal</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D50" s="11"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D51" s="11"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D52" s="11"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J62" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{636C30F3-6255-4FC2-B938-FA8041FC30FC}">
-    <sortState ref="A3:G40">
-      <sortCondition ref="F1:F52"/>
+  <autoFilter ref="A1:H49" xr:uid="{636C30F3-6255-4FC2-B938-FA8041FC30FC}">
+    <sortState ref="A3:H37">
+      <sortCondition ref="G1:G49"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="I28" r:id="rId1" display="https://doi.org/10.1093/gbe/evt169" xr:uid="{EAA77C32-A447-454E-A913-7AA8FD4E9D5A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04C3C33-FF21-43DD-9368-74CE7EA64FEF}">
+  <dimension ref="A1:L600"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:M54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" t="s">
+        <v>366</v>
+      </c>
+      <c r="I5" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="24">
+        <v>40391</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6">
+        <v>0.51</v>
+      </c>
+      <c r="G6">
+        <v>25.19</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="24">
+        <v>38078</v>
+      </c>
+      <c r="E7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7">
+        <v>6.25</v>
+      </c>
+      <c r="G7">
+        <v>10.43</v>
+      </c>
+      <c r="H7">
+        <v>2169</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8">
+        <v>8.25</v>
+      </c>
+      <c r="G8">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="H8">
+        <v>525</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9">
+        <v>7.26</v>
+      </c>
+      <c r="G9">
+        <v>36.25</v>
+      </c>
+      <c r="H9">
+        <v>1725</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="24">
+        <v>39783</v>
+      </c>
+      <c r="E10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10">
+        <v>6.98</v>
+      </c>
+      <c r="G10">
+        <v>39.18</v>
+      </c>
+      <c r="H10">
+        <v>2492</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11">
+        <v>9.81</v>
+      </c>
+      <c r="G11">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="H11">
+        <v>3070</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="24">
+        <v>40544</v>
+      </c>
+      <c r="E12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12">
+        <v>30.1</v>
+      </c>
+      <c r="G12">
+        <v>31.32</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13">
+        <v>7.74</v>
+      </c>
+      <c r="G13">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="H13">
+        <v>2260</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14">
+        <v>9.68</v>
+      </c>
+      <c r="G14">
+        <v>39.53</v>
+      </c>
+      <c r="H14">
+        <v>2840</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="24">
+        <v>39783</v>
+      </c>
+      <c r="E15" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15">
+        <v>7.93</v>
+      </c>
+      <c r="G15">
+        <v>38.72</v>
+      </c>
+      <c r="H15">
+        <v>1642</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="24">
+        <v>40360</v>
+      </c>
+      <c r="E16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16">
+        <v>45.77</v>
+      </c>
+      <c r="G16">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H16">
+        <v>175</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="24">
+        <v>37316</v>
+      </c>
+      <c r="E17" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17">
+        <v>-1.65</v>
+      </c>
+      <c r="G17">
+        <v>13.6</v>
+      </c>
+      <c r="H17">
+        <v>332</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="24">
+        <v>38504</v>
+      </c>
+      <c r="E18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18">
+        <v>10.7</v>
+      </c>
+      <c r="G18">
+        <v>-12.25</v>
+      </c>
+      <c r="H18">
+        <v>801</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="24">
+        <v>37438</v>
+      </c>
+      <c r="E19" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19">
+        <v>-1.43</v>
+      </c>
+      <c r="G19">
+        <v>40.03</v>
+      </c>
+      <c r="H19">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="24">
+        <v>39814</v>
+      </c>
+      <c r="E20" t="s">
+        <v>375</v>
+      </c>
+      <c r="F20">
+        <v>0.04</v>
+      </c>
+      <c r="G20">
+        <v>36.36</v>
+      </c>
+      <c r="H20">
+        <v>2303</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="24">
+        <v>39814</v>
+      </c>
+      <c r="E21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21">
+        <v>-0.25</v>
+      </c>
+      <c r="G21">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="H21">
+        <v>2506</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="24">
+        <v>39814</v>
+      </c>
+      <c r="E22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22">
+        <v>0.47</v>
+      </c>
+      <c r="G22">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="H22">
+        <v>1062</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="24">
+        <v>39814</v>
+      </c>
+      <c r="E23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23">
+        <v>-1.04</v>
+      </c>
+      <c r="G23">
+        <v>37.08</v>
+      </c>
+      <c r="H23">
+        <v>1531</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="24">
+        <v>38231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24">
+        <v>11.85</v>
+      </c>
+      <c r="G24">
+        <v>13.16</v>
+      </c>
+      <c r="H24">
+        <v>295</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25">
+        <v>2003</v>
+      </c>
+      <c r="E25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25">
+        <v>35.76</v>
+      </c>
+      <c r="G25">
+        <v>-78.66</v>
+      </c>
+      <c r="H25">
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <v>205</v>
+      </c>
+      <c r="J25">
+        <v>205</v>
+      </c>
+      <c r="K25">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="24">
+        <v>39783</v>
+      </c>
+      <c r="E26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26">
+        <v>-2.29</v>
+      </c>
+      <c r="G26">
+        <v>28.55</v>
+      </c>
+      <c r="H26">
+        <v>1602</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="24">
+        <v>39783</v>
+      </c>
+      <c r="E27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="G27">
+        <v>28.92</v>
+      </c>
+      <c r="H27">
+        <v>1927</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E28" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28">
+        <v>-30.97</v>
+      </c>
+      <c r="G28">
+        <v>27.59</v>
+      </c>
+      <c r="H28">
+        <v>1800</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29">
+        <v>-25.42</v>
+      </c>
+      <c r="G29">
+        <v>30.1</v>
+      </c>
+      <c r="H29">
+        <v>2000</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" t="s">
+        <v>442</v>
+      </c>
+      <c r="D30" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30">
+        <v>-31.06</v>
+      </c>
+      <c r="G30">
+        <v>30.22</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" s="24">
+        <v>40878</v>
+      </c>
+      <c r="E31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31">
+        <v>-28.6</v>
+      </c>
+      <c r="G31">
+        <v>28.05</v>
+      </c>
+      <c r="H31">
+        <v>1800</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" t="s">
+        <v>447</v>
+      </c>
+      <c r="D32" s="24">
+        <v>40360</v>
+      </c>
+      <c r="E32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32">
+        <v>-23.94</v>
+      </c>
+      <c r="G32">
+        <v>31.14</v>
+      </c>
+      <c r="H32">
+        <v>350</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="24">
+        <v>40148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>451</v>
+      </c>
+      <c r="F33">
+        <v>-8.89</v>
+      </c>
+      <c r="G33">
+        <v>33.44</v>
+      </c>
+      <c r="H33">
+        <v>1800</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D34" s="24">
+        <v>38443</v>
+      </c>
+      <c r="E34" t="s">
+        <v>455</v>
+      </c>
+      <c r="F34">
+        <v>0.53</v>
+      </c>
+      <c r="G34">
+        <v>32.6</v>
+      </c>
+      <c r="H34">
+        <v>1134</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="24">
+        <v>40909</v>
+      </c>
+      <c r="E35" t="s">
+        <v>380</v>
+      </c>
+      <c r="F35">
+        <v>-1.28</v>
+      </c>
+      <c r="G35">
+        <v>29.69</v>
+      </c>
+      <c r="H35">
+        <v>1925</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" s="24">
+        <v>40360</v>
+      </c>
+      <c r="E36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36">
+        <v>1.68</v>
+      </c>
+      <c r="G36">
+        <v>31.72</v>
+      </c>
+      <c r="H36">
+        <v>1170</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D37" s="24">
+        <v>40360</v>
+      </c>
+      <c r="E37" t="s">
+        <v>380</v>
+      </c>
+      <c r="F37">
+        <v>-16.54</v>
+      </c>
+      <c r="G37">
+        <v>28.72</v>
+      </c>
+      <c r="H37">
+        <v>530</v>
+      </c>
+      <c r="I37">
+        <v>196</v>
+      </c>
+      <c r="J37">
+        <v>197</v>
+      </c>
+      <c r="K37">
+        <v>197</v>
+      </c>
+      <c r="L37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C38" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="24">
+        <v>34455</v>
+      </c>
+      <c r="E38" t="s">
+        <v>468</v>
+      </c>
+      <c r="F38">
+        <v>-16.52</v>
+      </c>
+      <c r="G38">
+        <v>28.8</v>
+      </c>
+      <c r="H38">
+        <v>619</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" t="s">
+        <v>462</v>
+      </c>
+      <c r="C39" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="24">
+        <v>40360</v>
+      </c>
+      <c r="E39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F39">
+        <v>-17.86</v>
+      </c>
+      <c r="G39">
+        <v>25.86</v>
+      </c>
+      <c r="H39">
+        <v>900</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40" t="s">
+        <v>472</v>
+      </c>
+      <c r="D40" s="24">
+        <v>40360</v>
+      </c>
+      <c r="E40" t="s">
+        <v>380</v>
+      </c>
+      <c r="F40">
+        <v>-12.18</v>
+      </c>
+      <c r="G40">
+        <v>26.4</v>
+      </c>
+      <c r="H40">
+        <v>1380</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="24">
+        <v>33117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>475</v>
+      </c>
+      <c r="F41">
+        <v>-18.16</v>
+      </c>
+      <c r="G41">
+        <v>28.22</v>
+      </c>
+      <c r="H41">
+        <v>865</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G256" s="23"/>
+      <c r="H256" s="23"/>
+    </row>
+    <row r="260" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G260" s="23"/>
+      <c r="H260" s="23"/>
+    </row>
+    <row r="284" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G284" s="23"/>
+      <c r="H284" s="23"/>
+    </row>
+    <row r="303" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G303" s="23"/>
+      <c r="H303" s="23"/>
+    </row>
+    <row r="309" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G309" s="23"/>
+      <c r="H309" s="23"/>
+    </row>
+    <row r="319" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G319" s="23"/>
+      <c r="H319" s="23"/>
+    </row>
+    <row r="325" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G325" s="23"/>
+      <c r="H325" s="23"/>
+    </row>
+    <row r="364" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G364" s="23"/>
+      <c r="H364" s="23"/>
+    </row>
+    <row r="369" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G369" s="23"/>
+      <c r="H369" s="23"/>
+    </row>
+    <row r="405" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G405" s="23"/>
+      <c r="H405" s="23"/>
+    </row>
+    <row r="425" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G425" s="23"/>
+      <c r="H425" s="23"/>
+    </row>
+    <row r="451" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G451" s="23"/>
+      <c r="H451" s="23"/>
+    </row>
+    <row r="457" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G457" s="23"/>
+      <c r="H457" s="23"/>
+    </row>
+    <row r="467" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G467" s="23"/>
+    </row>
+    <row r="474" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G474" s="23"/>
+      <c r="H474" s="23"/>
+    </row>
+    <row r="495" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G495" s="23"/>
+      <c r="H495" s="23"/>
+    </row>
+    <row r="500" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G500" s="23"/>
+      <c r="H500" s="23"/>
+    </row>
+    <row r="528" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G528" s="23"/>
+      <c r="H528" s="23"/>
+    </row>
+    <row r="529" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G529" s="23"/>
+      <c r="H529" s="23"/>
+    </row>
+    <row r="553" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G553" s="23"/>
+      <c r="H553" s="23"/>
+    </row>
+    <row r="558" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G558" s="23"/>
+      <c r="H558" s="23"/>
+    </row>
+    <row r="566" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G566" s="23"/>
+      <c r="H566" s="23"/>
+    </row>
+    <row r="567" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G567" s="23"/>
+      <c r="H567" s="23"/>
+    </row>
+    <row r="570" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G570" s="23"/>
+      <c r="H570" s="23"/>
+    </row>
+    <row r="576" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G576" s="23"/>
+      <c r="H576" s="23"/>
+    </row>
+    <row r="586" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G586" s="23"/>
+      <c r="H586" s="23"/>
+    </row>
+    <row r="600" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G600" s="23"/>
+      <c r="H600" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F050BF9-3580-423B-BF14-F03EE5E90432}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -3676,7 +6465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BA3E6E-F5A3-4101-9715-12005F3EC543}">
   <dimension ref="A1:W18"/>
   <sheetViews>
@@ -4789,11 +7578,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8358BD9-4DC3-409C-8359-A60C8FC6BBE3}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5414,7 +8203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BB24F-9645-4DA9-B3EB-08FFA5985103}">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -5435,44 +8224,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="18" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="21"/>
       <c r="G2" t="s">
         <v>285</v>
       </c>
@@ -5482,21 +8271,21 @@
       <c r="I2" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <f>VLOOKUP(A3,Names!$B$1:$C$46,2,0)</f>
         <v>376</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="6"/>
       <c r="D3" t="s">
         <v>283</v>
       </c>
@@ -5529,11 +8318,11 @@
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <f>VLOOKUP(A4,Names!$B$1:$C$46,2,0)</f>
         <v>377</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>283</v>
       </c>
@@ -5566,11 +8355,11 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <f>VLOOKUP(A5,Names!$B$1:$C$46,2,0)</f>
         <v>378</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="6"/>
       <c r="D5" t="s">
         <v>283</v>
       </c>
@@ -5603,11 +8392,11 @@
       <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="6" t="str">
         <f>VLOOKUP(A6,Names!$B$1:$C$46,2,0)</f>
         <v>HG0021</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>283</v>
       </c>
@@ -5640,11 +8429,11 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="6" t="str">
         <f>VLOOKUP(A7,Names!$B$1:$C$46,2,0)</f>
         <v>HG0025</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>283</v>
       </c>
@@ -5677,11 +8466,11 @@
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="6" t="str">
         <f>VLOOKUP(A8,Names!$B$1:$C$46,2,0)</f>
         <v>HG0026</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>283</v>
       </c>
@@ -5714,11 +8503,11 @@
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="6" t="str">
         <f>VLOOKUP(A9,Names!$B$1:$C$46,2,0)</f>
         <v>HG0027</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>283</v>
       </c>
@@ -5751,11 +8540,11 @@
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="6" t="str">
         <f>VLOOKUP(A10,Names!$B$1:$C$46,2,0)</f>
         <v>HG0028</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>283</v>
       </c>
@@ -5788,11 +8577,11 @@
       <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="6" t="str">
         <f>VLOOKUP(A11,Names!$B$1:$C$46,2,0)</f>
         <v>HG0029</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="6"/>
       <c r="D11" t="s">
         <v>283</v>
       </c>
@@ -5825,11 +8614,11 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="6" t="str">
         <f>VLOOKUP(A12,Names!$B$1:$C$46,2,0)</f>
         <v>HG0034</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>283</v>
       </c>
@@ -5862,11 +8651,11 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="6" t="str">
         <f>VLOOKUP(A13,Names!$B$1:$C$46,2,0)</f>
         <v>HG0035</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="6"/>
       <c r="D13" t="s">
         <v>283</v>
       </c>
@@ -5899,11 +8688,11 @@
       <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="6" t="str">
         <f>VLOOKUP(A14,Names!$B$1:$C$46,2,0)</f>
         <v>HG29702</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="6"/>
       <c r="D14" t="s">
         <v>283</v>
       </c>
@@ -5936,11 +8725,11 @@
       <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="6" t="str">
         <f>VLOOKUP(A15,Names!$B$1:$C$46,2,0)</f>
         <v>HG47203</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="6"/>
       <c r="D15" t="s">
         <v>283</v>
       </c>
@@ -5973,11 +8762,11 @@
       <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="6" t="str">
         <f>VLOOKUP(A16,Names!$B$1:$C$46,2,0)</f>
         <v>HG47204</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="6"/>
       <c r="D16" t="s">
         <v>283</v>
       </c>
@@ -6010,11 +8799,11 @@
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="6" t="str">
         <f>VLOOKUP(A17,Names!$B$1:$C$46,2,0)</f>
         <v>HG47205</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="6"/>
       <c r="D17" t="s">
         <v>283</v>
       </c>
@@ -6047,11 +8836,11 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="6" t="str">
         <f>VLOOKUP(A18,Names!$B$1:$C$46,2,0)</f>
         <v>HG_09</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>283</v>
       </c>
@@ -6084,11 +8873,11 @@
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="6" t="str">
         <f>VLOOKUP(A19,Names!$B$1:$C$46,2,0)</f>
         <v>HG_14</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="6"/>
       <c r="D19" t="s">
         <v>283</v>
       </c>
@@ -6121,11 +8910,11 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="6" t="str">
         <f>VLOOKUP(A20,Names!$B$1:$C$46,2,0)</f>
         <v>HG_15</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="6"/>
       <c r="D20" t="s">
         <v>283</v>
       </c>
@@ -6158,11 +8947,11 @@
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="6" t="str">
         <f>VLOOKUP(A21,Names!$B$1:$C$46,2,0)</f>
         <v>HG_16</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>283</v>
       </c>
@@ -6195,11 +8984,11 @@
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="6" t="str">
         <f>VLOOKUP(A22,Names!$B$1:$C$46,2,0)</f>
         <v>HG_17</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="s">
         <v>283</v>
       </c>
@@ -6232,11 +9021,11 @@
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="6" t="str">
         <f>VLOOKUP(A23,Names!$B$1:$C$46,2,0)</f>
         <v>HG_18</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>283</v>
       </c>
@@ -6269,11 +9058,11 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="6" t="str">
         <f>VLOOKUP(A24,Names!$B$1:$C$46,2,0)</f>
         <v>HG_19</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="6"/>
       <c r="D24" t="s">
         <v>283</v>
       </c>
@@ -6306,11 +9095,11 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="6" t="str">
         <f>VLOOKUP(A25,Names!$B$1:$C$46,2,0)</f>
         <v>HG_20</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="6"/>
       <c r="D25" t="s">
         <v>283</v>
       </c>
@@ -6343,11 +9132,11 @@
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="6" t="str">
         <f>VLOOKUP(A26,Names!$B$1:$C$46,2,0)</f>
         <v>HG_21</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="6"/>
       <c r="D26" t="s">
         <v>283</v>
       </c>
@@ -6380,11 +9169,11 @@
       <c r="A27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="6" t="str">
         <f>VLOOKUP(A27,Names!$B$1:$C$46,2,0)</f>
         <v>Ak7_full</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="6"/>
       <c r="D27" t="s">
         <v>284</v>
       </c>
@@ -6417,11 +9206,11 @@
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="6" t="str">
         <f>VLOOKUP(A28,Names!$B$1:$C$46,2,0)</f>
         <v>Ak9_full</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="6"/>
       <c r="D28" t="s">
         <v>284</v>
       </c>
@@ -6454,11 +9243,11 @@
       <c r="A29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="6" t="str">
         <f>VLOOKUP(A29,Names!$B$1:$C$46,2,0)</f>
         <v>CS</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="6"/>
       <c r="D29" t="s">
         <v>284</v>
       </c>
@@ -6491,11 +9280,11 @@
       <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="6" t="str">
         <f>VLOOKUP(A30,Names!$B$1:$C$46,2,0)</f>
         <v>MEL_full</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="6"/>
       <c r="D30" t="s">
         <v>284</v>
       </c>
@@ -6528,11 +9317,11 @@
       <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="6" t="str">
         <f>VLOOKUP(A31,Names!$B$1:$C$46,2,0)</f>
         <v>POP</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="6"/>
       <c r="D31" t="s">
         <v>284</v>
       </c>
@@ -6565,11 +9354,11 @@
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="6" t="str">
         <f>VLOOKUP(A32,Names!$B$1:$C$46,2,0)</f>
         <v>Re10</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="6"/>
       <c r="D32" t="s">
         <v>284</v>
       </c>
@@ -6602,11 +9391,11 @@
       <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="6" t="str">
         <f>VLOOKUP(A33,Names!$B$1:$C$46,2,0)</f>
         <v>Re1_full</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="6"/>
       <c r="D33" t="s">
         <v>284</v>
       </c>
@@ -6639,11 +9428,11 @@
       <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="6" t="str">
         <f>VLOOKUP(A34,Names!$B$1:$C$46,2,0)</f>
         <v>Re3</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="6"/>
       <c r="D34" t="s">
         <v>284</v>
       </c>
@@ -6676,11 +9465,11 @@
       <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="6" t="str">
         <f>VLOOKUP(A35,Names!$B$1:$C$46,2,0)</f>
         <v>Re6_full</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="6"/>
       <c r="D35" t="s">
         <v>284</v>
       </c>
